--- a/doc/16寄存器组.xlsx
+++ b/doc/16寄存器组.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0B3B64-855D-45AB-BD26-CBD5F33ED8EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540336A0-D3BE-4811-A7DD-A6C7BC37A105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>标识符</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,17 +127,6 @@
     <t>R9</t>
   </si>
   <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,11 +147,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>栈顶指针，可作通用寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆栈指针，可作通用寄存器</t>
+    <t>RA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -214,19 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -236,17 +216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -255,19 +224,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -385,17 +341,78 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -409,6 +426,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -692,200 +711,200 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="26.6640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>35</v>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>36</v>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>37</v>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
+      <c r="A14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>39</v>
+      <c r="C15" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
+      <c r="A16" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/16寄存器组.xlsx
+++ b/doc/16寄存器组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540336A0-D3BE-4811-A7DD-A6C7BC37A105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A230E9-0075-4AC9-9C24-C13F25BF9591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -231,9 +231,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -246,9 +244,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -261,12 +257,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -277,7 +280,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -290,7 +295,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -303,49 +310,14 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -357,7 +329,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -372,7 +344,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -387,28 +359,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -425,9 +388,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -711,7 +671,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,36 +680,36 @@
     <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -875,13 +835,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -897,13 +857,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
     </row>

--- a/doc/16寄存器组.xlsx
+++ b/doc/16寄存器组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaow\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A230E9-0075-4AC9-9C24-C13F25BF9591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CDAD1-C49E-449F-AE8E-13D8DAB5C245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>标识符</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通用寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>程序计数器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +152,58 @@
   </si>
   <si>
     <t>RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断返回寄存器，存储中断发生时下一条指令的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,13 +719,13 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,7 +857,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,40 +868,40 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -864,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
